--- a/src/main/resources/Requirement-Outline.xlsx
+++ b/src/main/resources/Requirement-Outline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="150">
   <si>
     <t xml:space="preserve">Requirement Outline</t>
   </si>
@@ -995,11 +995,11 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.78"/>
@@ -2241,7 +2241,9 @@
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="9" t="s">
         <v>46</v>
@@ -2295,7 +2297,9 @@
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="9" t="s">
         <v>48</v>
@@ -2349,7 +2353,9 @@
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="9" t="s">
         <v>50</v>
